--- a/CompetencesCPGE2021.xlsx
+++ b/CompetencesCPGE2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\GT SII\Compétences\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DevoirsDuSoir_Livrets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F462D4-3161-426E-BCB1-4B07A38FB623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937D7DE5-8749-4F6C-9970-ED154838938F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comparatif" sheetId="32" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="MPSI-MP" sheetId="43" r:id="rId5"/>
     <sheet name="Couleurs" sheetId="33" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <customWorkbookViews>
+    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
+    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
     <customWorkbookView name="Sup: 1 - Spé: 0" guid="{D835D448-F561-4486-92EF-D573DDD26CB6}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="6"/>
-    <customWorkbookView name="Sup: 1 - Spé: 1" guid="{18A83F5A-948D-4025-A538-8420B224B464}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 1" guid="{8714E0F1-CCCA-4822-93D0-FC99B665005C}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
-    <customWorkbookView name="Sup: 0 - Spé: 0" guid="{D5B58388-A8C3-42C5-A2AF-B256E853E553}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="10"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2450,24 +2450,6 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2482,6 +2464,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2843,61 +2843,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" style="17" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="104" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="82.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="103" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="104" customWidth="1"/>
-    <col min="12" max="12" width="62.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="82.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="5.28515625" style="103" customWidth="1"/>
-    <col min="15" max="15" width="3.7109375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" style="104" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="82.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" style="103" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="6.26953125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="48" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="104" customWidth="1"/>
+    <col min="7" max="7" width="62.7265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="82.7265625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" style="103" customWidth="1"/>
+    <col min="10" max="10" width="3.7265625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.26953125" style="104" customWidth="1"/>
+    <col min="12" max="12" width="62.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="82.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="5.26953125" style="103" customWidth="1"/>
+    <col min="15" max="15" width="3.7265625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="6.26953125" style="104" customWidth="1"/>
+    <col min="17" max="17" width="62.7265625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="82.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.26953125" style="103" customWidth="1"/>
+    <col min="20" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:19" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="F1" s="123" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="F1" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="K1" s="123" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="K1" s="130" t="s">
         <v>421</v>
       </c>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="P1" s="123" t="s">
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="P1" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="130"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="F2" s="58"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -2911,7 +2911,7 @@
       <c r="R2" s="18"/>
       <c r="S2" s="49"/>
     </row>
-    <row r="3" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="R3" s="21"/>
       <c r="S3" s="66"/>
     </row>
-    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="R4" s="68"/>
       <c r="S4" s="69"/>
     </row>
-    <row r="5" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -3029,14 +3029,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
@@ -3048,7 +3048,7 @@
       <c r="G6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H6" s="120" t="s">
+      <c r="H6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="I6" s="50" t="s">
@@ -3060,7 +3060,7 @@
       <c r="L6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="M6" s="120" t="s">
+      <c r="M6" s="127" t="s">
         <v>426</v>
       </c>
       <c r="N6" s="50" t="s">
@@ -3072,21 +3072,21 @@
       <c r="Q6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="R6" s="120" t="s">
+      <c r="R6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="S6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3096,7 +3096,7 @@
       <c r="G7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H7" s="121"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="L7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="121"/>
+      <c r="M7" s="128"/>
       <c r="N7" s="50" t="s">
         <v>169</v>
       </c>
@@ -3116,19 +3116,19 @@
       <c r="Q7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="R7" s="121"/>
+      <c r="R7" s="128"/>
       <c r="S7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="G8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H8" s="121"/>
+      <c r="H8" s="128"/>
       <c r="I8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3148,7 +3148,7 @@
       <c r="L8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="M8" s="121"/>
+      <c r="M8" s="128"/>
       <c r="N8" s="50" t="s">
         <v>169</v>
       </c>
@@ -3158,19 +3158,19 @@
       <c r="Q8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="R8" s="121"/>
+      <c r="R8" s="128"/>
       <c r="S8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="G9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H9" s="122"/>
+      <c r="H9" s="129"/>
       <c r="I9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3190,7 +3190,7 @@
       <c r="L9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="122"/>
+      <c r="M9" s="129"/>
       <c r="N9" s="50" t="s">
         <v>169</v>
       </c>
@@ -3200,12 +3200,12 @@
       <c r="Q9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R9" s="122"/>
+      <c r="R9" s="129"/>
       <c r="S9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -3239,14 +3239,14 @@
       <c r="R10" s="68"/>
       <c r="S10" s="69"/>
     </row>
-    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
@@ -3258,7 +3258,7 @@
       <c r="G11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H11" s="120" t="s">
+      <c r="H11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="I11" s="50" t="s">
@@ -3270,7 +3270,7 @@
       <c r="L11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="120" t="s">
+      <c r="M11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="N11" s="50" t="s">
@@ -3282,21 +3282,21 @@
       <c r="Q11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="R11" s="120" t="s">
+      <c r="R11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="S11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="G12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="122"/>
+      <c r="H12" s="129"/>
       <c r="I12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="L12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="M12" s="122"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="50" t="s">
         <v>175</v>
       </c>
@@ -3326,10 +3326,10 @@
       <c r="Q12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="R12" s="122"/>
+      <c r="R12" s="129"/>
       <c r="S12" s="50"/>
     </row>
-    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -3413,14 +3413,14 @@
       <c r="R14" s="68"/>
       <c r="S14" s="69"/>
     </row>
-    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
@@ -3432,7 +3432,7 @@
       <c r="G15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H15" s="120" t="s">
+      <c r="H15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="I15" s="50" t="s">
@@ -3444,7 +3444,7 @@
       <c r="L15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="M15" s="120" t="s">
+      <c r="M15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="N15" s="50" t="s">
@@ -3456,21 +3456,21 @@
       <c r="Q15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="R15" s="120" t="s">
+      <c r="R15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="S15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3480,7 +3480,7 @@
       <c r="G16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="H16" s="121"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3490,7 +3490,7 @@
       <c r="L16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="M16" s="121"/>
+      <c r="M16" s="128"/>
       <c r="N16" s="50" t="s">
         <v>181</v>
       </c>
@@ -3500,19 +3500,19 @@
       <c r="Q16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="R16" s="121"/>
+      <c r="R16" s="128"/>
       <c r="S16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3522,7 +3522,7 @@
       <c r="G17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="H17" s="121"/>
+      <c r="H17" s="128"/>
       <c r="I17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3532,7 +3532,7 @@
       <c r="L17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M17" s="121"/>
+      <c r="M17" s="128"/>
       <c r="N17" s="50" t="s">
         <v>169</v>
       </c>
@@ -3542,19 +3542,19 @@
       <c r="Q17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="R17" s="121"/>
+      <c r="R17" s="128"/>
       <c r="S17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3564,7 +3564,7 @@
       <c r="G18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H18" s="122"/>
+      <c r="H18" s="129"/>
       <c r="I18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="L18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="M18" s="122"/>
+      <c r="M18" s="129"/>
       <c r="N18" s="50" t="s">
         <v>169</v>
       </c>
@@ -3584,12 +3584,12 @@
       <c r="Q18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="R18" s="122"/>
+      <c r="R18" s="129"/>
       <c r="S18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:19" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -3631,7 +3631,7 @@
       <c r="R19"/>
       <c r="S19"/>
     </row>
-    <row r="20" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -3773,14 +3773,14 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="127" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
@@ -3793,14 +3793,14 @@
       <c r="J23"/>
       <c r="O23"/>
     </row>
-    <row r="24" spans="1:19" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="122"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
@@ -3819,7 +3819,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
         <v>18</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>19</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
         <v>145</v>
       </c>
@@ -3954,14 +3954,14 @@
       <c r="R27" s="68"/>
       <c r="S27" s="69"/>
     </row>
-    <row r="28" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="127" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
@@ -3973,7 +3973,7 @@
       <c r="G28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="H28" s="120" t="s">
+      <c r="H28" s="127" t="s">
         <v>339</v>
       </c>
       <c r="I28" s="50" t="s">
@@ -3985,7 +3985,7 @@
       <c r="L28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="M28" s="120" t="s">
+      <c r="M28" s="127" t="s">
         <v>339</v>
       </c>
       <c r="N28" s="50" t="s">
@@ -3997,21 +3997,21 @@
       <c r="Q28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="R28" s="120" t="s">
+      <c r="R28" s="127" t="s">
         <v>339</v>
       </c>
       <c r="S28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="121"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="G29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H29" s="121"/>
+      <c r="H29" s="128"/>
       <c r="I29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4031,7 +4031,7 @@
       <c r="L29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="M29" s="121"/>
+      <c r="M29" s="128"/>
       <c r="N29" s="50" t="s">
         <v>181</v>
       </c>
@@ -4041,19 +4041,19 @@
       <c r="Q29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="R29" s="121"/>
+      <c r="R29" s="128"/>
       <c r="S29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="121"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="G30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="H30" s="121"/>
+      <c r="H30" s="128"/>
       <c r="I30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="L30" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="M30" s="121"/>
+      <c r="M30" s="128"/>
       <c r="N30" s="50" t="s">
         <v>181</v>
       </c>
@@ -4083,19 +4083,19 @@
       <c r="Q30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="R30" s="121"/>
+      <c r="R30" s="128"/>
       <c r="S30" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="122"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="G31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="H31" s="122"/>
+      <c r="H31" s="129"/>
       <c r="I31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4115,7 +4115,7 @@
       <c r="L31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="M31" s="122"/>
+      <c r="M31" s="129"/>
       <c r="N31" s="50" t="s">
         <v>181</v>
       </c>
@@ -4125,12 +4125,12 @@
       <c r="Q31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="R31" s="122"/>
+      <c r="R31" s="129"/>
       <c r="S31" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="70" t="s">
         <v>144</v>
       </c>
@@ -4146,14 +4146,14 @@
       <c r="P32" s="58"/>
       <c r="S32" s="49"/>
     </row>
-    <row r="33" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="127" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
@@ -4165,14 +4165,14 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="128"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
@@ -4191,14 +4191,14 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
@@ -4217,14 +4217,14 @@
       <c r="R35"/>
       <c r="S35"/>
     </row>
-    <row r="36" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="127" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
@@ -4245,14 +4245,14 @@
       <c r="R36"/>
       <c r="S36"/>
     </row>
-    <row r="37" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="121"/>
+      <c r="C37" s="128"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
@@ -4271,14 +4271,14 @@
       <c r="R37"/>
       <c r="S37"/>
     </row>
-    <row r="38" spans="1:19" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="122"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
@@ -4297,7 +4297,7 @@
       <c r="R38"/>
       <c r="S38"/>
     </row>
-    <row r="39" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="73"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
@@ -4317,7 +4317,7 @@
       <c r="R39"/>
       <c r="S39"/>
     </row>
-    <row r="40" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="89" t="s">
         <v>142</v>
       </c>
@@ -4352,7 +4352,7 @@
       <c r="R40" s="76"/>
       <c r="S40" s="77"/>
     </row>
-    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="78" t="s">
         <v>141</v>
       </c>
@@ -4386,14 +4386,14 @@
       <c r="R41" s="79"/>
       <c r="S41" s="80"/>
     </row>
-    <row r="42" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="120" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
@@ -4405,7 +4405,7 @@
       <c r="G42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H42" s="126" t="s">
+      <c r="H42" s="120" t="s">
         <v>205</v>
       </c>
       <c r="I42" s="51" t="s">
@@ -4417,7 +4417,7 @@
       <c r="L42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="M42" s="126" t="s">
+      <c r="M42" s="120" t="s">
         <v>205</v>
       </c>
       <c r="N42" s="51" t="s">
@@ -4429,21 +4429,21 @@
       <c r="Q42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="R42" s="126" t="s">
+      <c r="R42" s="120" t="s">
         <v>205</v>
       </c>
       <c r="S42" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="127"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4453,7 +4453,7 @@
       <c r="G43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="127"/>
+      <c r="H43" s="121"/>
       <c r="I43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4463,7 +4463,7 @@
       <c r="L43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="M43" s="128"/>
+      <c r="M43" s="122"/>
       <c r="N43" s="51" t="s">
         <v>181</v>
       </c>
@@ -4473,19 +4473,19 @@
       <c r="Q43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="R43" s="127"/>
+      <c r="R43" s="121"/>
       <c r="S43" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="127"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="G44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H44" s="127"/>
+      <c r="H44" s="121"/>
       <c r="I44" s="51" t="s">
         <v>181</v>
       </c>
@@ -4515,19 +4515,19 @@
       <c r="Q44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="R44" s="127"/>
+      <c r="R44" s="121"/>
       <c r="S44" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4537,7 +4537,7 @@
       <c r="G45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="H45" s="128"/>
+      <c r="H45" s="122"/>
       <c r="I45" s="51" t="s">
         <v>181</v>
       </c>
@@ -4557,12 +4557,12 @@
       <c r="Q45" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="R45" s="128"/>
+      <c r="R45" s="122"/>
       <c r="S45" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="78" t="s">
         <v>140</v>
       </c>
@@ -4596,7 +4596,7 @@
       <c r="R46" s="79"/>
       <c r="S46" s="80"/>
     </row>
-    <row r="47" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
         <v>34</v>
       </c>
@@ -4646,14 +4646,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
@@ -4665,7 +4665,7 @@
       <c r="G48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H48" s="126" t="s">
+      <c r="H48" s="120" t="s">
         <v>343</v>
       </c>
       <c r="I48" s="51" t="s">
@@ -4677,7 +4677,7 @@
       <c r="L48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="M48" s="126" t="s">
+      <c r="M48" s="120" t="s">
         <v>343</v>
       </c>
       <c r="N48" s="51" t="s">
@@ -4689,21 +4689,21 @@
       <c r="Q48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="R48" s="126" t="s">
+      <c r="R48" s="120" t="s">
         <v>343</v>
       </c>
       <c r="S48" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:19" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="128"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="G49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="128"/>
+      <c r="H49" s="122"/>
       <c r="I49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="L49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="M49" s="128"/>
+      <c r="M49" s="122"/>
       <c r="N49" s="51" t="s">
         <v>185</v>
       </c>
@@ -4733,12 +4733,12 @@
       <c r="Q49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="R49" s="128"/>
+      <c r="R49" s="122"/>
       <c r="S49" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A50" s="60" t="s">
         <v>37</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A51" s="60" t="s">
         <v>38</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="60" t="s">
         <v>39</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A53" s="60" t="s">
         <v>40</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>41</v>
       </c>
@@ -4988,7 +4988,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>42</v>
       </c>
@@ -5023,7 +5023,7 @@
       <c r="R55"/>
       <c r="S55"/>
     </row>
-    <row r="56" spans="1:19" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>43</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
         <v>44</v>
       </c>
@@ -5100,14 +5100,14 @@
       <c r="R57"/>
       <c r="S57"/>
     </row>
-    <row r="58" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="126" t="s">
+      <c r="C58" s="120" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -5119,7 +5119,7 @@
       <c r="G58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H58" s="126" t="s">
+      <c r="H58" s="120" t="s">
         <v>413</v>
       </c>
       <c r="I58" s="51" t="s">
@@ -5131,7 +5131,7 @@
       <c r="L58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="M58" s="126" t="s">
+      <c r="M58" s="120" t="s">
         <v>413</v>
       </c>
       <c r="N58" s="51" t="s">
@@ -5143,21 +5143,21 @@
       <c r="Q58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="R58" s="126" t="s">
+      <c r="R58" s="120" t="s">
         <v>413</v>
       </c>
       <c r="S58" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:19" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="128"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="G59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="H59" s="128"/>
+      <c r="H59" s="122"/>
       <c r="I59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5177,7 +5177,7 @@
       <c r="L59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="M59" s="128"/>
+      <c r="M59" s="122"/>
       <c r="N59" s="51" t="s">
         <v>169</v>
       </c>
@@ -5187,12 +5187,12 @@
       <c r="Q59" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="R59" s="128"/>
+      <c r="R59" s="122"/>
       <c r="S59" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A60" s="60" t="s">
         <v>47</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="60" t="s">
         <v>48</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="I61"/>
       <c r="P61" s="116"/>
     </row>
-    <row r="62" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A62" s="60" t="s">
         <v>49</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A63" s="60" t="s">
         <v>50</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
@@ -5403,7 +5403,7 @@
       <c r="R64"/>
       <c r="S64"/>
     </row>
-    <row r="65" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A65" s="60" t="s">
         <v>52</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="R65"/>
       <c r="S65"/>
     </row>
-    <row r="66" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="60" t="s">
         <v>53</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A67" s="60" t="s">
         <v>54</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="R67"/>
       <c r="S67"/>
     </row>
-    <row r="68" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A68" s="60" t="s">
         <v>55</v>
       </c>
@@ -5534,7 +5534,7 @@
       <c r="R68"/>
       <c r="S68"/>
     </row>
-    <row r="69" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="60" t="s">
         <v>56</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="R69"/>
       <c r="S69"/>
     </row>
-    <row r="70" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="78" t="s">
         <v>138</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="R70" s="79"/>
       <c r="S70" s="80"/>
     </row>
-    <row r="71" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="60" t="s">
         <v>57</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="60" t="s">
         <v>58</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="60" t="s">
         <v>59</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -5749,7 +5749,7 @@
       <c r="P74" s="58"/>
       <c r="S74" s="49"/>
     </row>
-    <row r="75" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="87" t="s">
         <v>135</v>
       </c>
@@ -5783,7 +5783,7 @@
       <c r="R75" s="81"/>
       <c r="S75" s="81"/>
     </row>
-    <row r="76" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="82" t="s">
         <v>134</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="R76" s="83"/>
       <c r="S76" s="84"/>
     </row>
-    <row r="77" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A77" s="61" t="s">
         <v>60</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="61" t="s">
         <v>61</v>
       </c>
@@ -5917,7 +5917,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="61" t="s">
         <v>62</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="61" t="s">
         <v>63</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A81" s="61" t="s">
         <v>64</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="61" t="s">
         <v>65</v>
       </c>
@@ -6094,7 +6094,7 @@
       <c r="R82"/>
       <c r="S82"/>
     </row>
-    <row r="83" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>153</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="R83"/>
       <c r="S83"/>
     </row>
-    <row r="84" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="82" t="s">
         <v>133</v>
       </c>
@@ -6155,7 +6155,7 @@
       <c r="R84" s="83"/>
       <c r="S84" s="84"/>
     </row>
-    <row r="85" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A85" s="61" t="s">
         <v>66</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="61" t="s">
         <v>67</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="18" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="18" customFormat="1" ht="147" x14ac:dyDescent="0.35">
       <c r="A87" s="61" t="s">
         <v>68</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="61" t="s">
         <v>69</v>
       </c>
@@ -6355,7 +6355,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A89" s="61" t="s">
         <v>70</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A90" s="61" t="s">
         <v>71</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A91" s="61" t="s">
         <v>72</v>
       </c>
@@ -6505,14 +6505,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="129" t="s">
+      <c r="C92" s="123" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
@@ -6524,7 +6524,7 @@
       <c r="G92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H92" s="129" t="s">
+      <c r="H92" s="123" t="s">
         <v>427</v>
       </c>
       <c r="I92" s="52" t="s">
@@ -6536,7 +6536,7 @@
       <c r="L92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="M92" s="129" t="s">
+      <c r="M92" s="123" t="s">
         <v>427</v>
       </c>
       <c r="N92" s="52" t="s">
@@ -6548,21 +6548,21 @@
       <c r="Q92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="R92" s="129" t="s">
+      <c r="R92" s="123" t="s">
         <v>427</v>
       </c>
       <c r="S92" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="130"/>
+      <c r="C93" s="124"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6572,7 +6572,7 @@
       <c r="G93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="H93" s="130"/>
+      <c r="H93" s="124"/>
       <c r="I93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6582,7 +6582,7 @@
       <c r="L93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M93" s="130"/>
+      <c r="M93" s="124"/>
       <c r="N93" s="52" t="s">
         <v>185</v>
       </c>
@@ -6592,12 +6592,12 @@
       <c r="Q93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="R93" s="130"/>
+      <c r="R93" s="124"/>
       <c r="S93" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A94" s="61" t="s">
         <v>75</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="R94"/>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A95" s="61" t="s">
         <v>76</v>
       </c>
@@ -6651,7 +6651,7 @@
       <c r="R95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="82" t="s">
         <v>132</v>
       </c>
@@ -6685,7 +6685,7 @@
       <c r="R96" s="83"/>
       <c r="S96" s="84"/>
     </row>
-    <row r="97" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="61" t="s">
         <v>77</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A98" s="61" t="s">
         <v>78</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A99" s="61" t="s">
         <v>79</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F100" s="58"/>
       <c r="G100" s="18"/>
       <c r="H100" s="102"/>
@@ -6851,7 +6851,7 @@
       <c r="R100" s="102"/>
       <c r="S100" s="49"/>
     </row>
-    <row r="101" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="86" t="s">
         <v>130</v>
       </c>
@@ -6885,7 +6885,7 @@
       <c r="R101" s="30"/>
       <c r="S101" s="30"/>
     </row>
-    <row r="102" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="93" t="s">
         <v>129</v>
       </c>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="S102" s="49"/>
     </row>
-    <row r="103" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="62" t="s">
         <v>80</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="62" t="s">
         <v>81</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="62" t="s">
         <v>82</v>
       </c>
@@ -7049,7 +7049,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="93" t="s">
         <v>128</v>
       </c>
@@ -7079,7 +7079,7 @@
       </c>
       <c r="S106" s="49"/>
     </row>
-    <row r="107" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="62" t="s">
         <v>83</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="62" t="s">
         <v>84</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A109" s="62" t="s">
         <v>85</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="62" t="s">
         <v>86</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="62" t="s">
         <v>87</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A112" s="62" t="s">
         <v>88</v>
       </c>
@@ -7316,7 +7316,7 @@
       <c r="R112"/>
       <c r="S112"/>
     </row>
-    <row r="113" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="93" t="s">
         <v>161</v>
       </c>
@@ -7346,7 +7346,7 @@
       </c>
       <c r="S113" s="49"/>
     </row>
-    <row r="114" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="62" t="s">
         <v>110</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="62" t="s">
         <v>111</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A116" s="62" t="s">
         <v>112</v>
       </c>
@@ -7480,14 +7480,14 @@
         <v>434</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="124" t="s">
+      <c r="C117" s="125" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
@@ -7499,7 +7499,7 @@
       <c r="G117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H117" s="124" t="s">
+      <c r="H117" s="125" t="s">
         <v>273</v>
       </c>
       <c r="I117" s="53" t="s">
@@ -7511,7 +7511,7 @@
       <c r="L117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="M117" s="124" t="s">
+      <c r="M117" s="125" t="s">
         <v>273</v>
       </c>
       <c r="N117" s="53" t="s">
@@ -7523,21 +7523,21 @@
       <c r="Q117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="R117" s="124" t="s">
+      <c r="R117" s="125" t="s">
         <v>273</v>
       </c>
       <c r="S117" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="118" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="125"/>
+      <c r="C118" s="126"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7547,7 +7547,7 @@
       <c r="G118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="H118" s="125"/>
+      <c r="H118" s="126"/>
       <c r="I118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7557,7 +7557,7 @@
       <c r="L118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="M118" s="125"/>
+      <c r="M118" s="126"/>
       <c r="N118" s="53" t="s">
         <v>175</v>
       </c>
@@ -7567,12 +7567,12 @@
       <c r="Q118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R118" s="125"/>
+      <c r="R118" s="126"/>
       <c r="S118" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="119" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F119" s="58"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
@@ -7588,7 +7588,7 @@
       <c r="R119" s="18"/>
       <c r="S119" s="49"/>
     </row>
-    <row r="120" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
@@ -7622,7 +7622,7 @@
       <c r="R120" s="33"/>
       <c r="S120" s="33"/>
     </row>
-    <row r="121" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A121" s="95" t="s">
         <v>125</v>
       </c>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="S121" s="49"/>
     </row>
-    <row r="122" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A122" s="63" t="s">
         <v>89</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="123" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="s">
         <v>90</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="63" t="s">
         <v>91</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="125" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="63" t="s">
         <v>92</v>
       </c>
@@ -7830,7 +7830,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="63" t="s">
         <v>154</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="128" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A128" s="63" t="s">
         <v>155</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="129" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="95" t="s">
         <v>124</v>
       </c>
@@ -7991,7 +7991,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="63" t="s">
         <v>94</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="131" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="63" t="s">
         <v>95</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="132" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="63" t="s">
         <v>96</v>
       </c>
@@ -8117,7 +8117,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="133" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="63" t="s">
         <v>97</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A134" s="63" t="s">
         <v>98</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="135" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A135" s="63" t="s">
         <v>99</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F136" s="58"/>
       <c r="G136" s="18"/>
       <c r="H136" s="18"/>
@@ -8263,7 +8263,7 @@
       <c r="R136" s="1"/>
       <c r="S136" s="103"/>
     </row>
-    <row r="137" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="R137" s="1"/>
       <c r="S137" s="103"/>
     </row>
-    <row r="138" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>121</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="R138" s="1"/>
       <c r="S138" s="103"/>
     </row>
-    <row r="139" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="64" t="s">
         <v>100</v>
       </c>
@@ -8357,7 +8357,7 @@
       <c r="R139" s="1"/>
       <c r="S139" s="103"/>
     </row>
-    <row r="140" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A140" s="64" t="s">
         <v>101</v>
       </c>
@@ -8376,7 +8376,7 @@
       <c r="R140" s="1"/>
       <c r="S140" s="103"/>
     </row>
-    <row r="141" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
         <v>120</v>
       </c>
@@ -8404,7 +8404,7 @@
       <c r="R141" s="1"/>
       <c r="S141" s="103"/>
     </row>
-    <row r="142" spans="1:19" s="18" customFormat="1" ht="123.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" s="18" customFormat="1" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A142" s="64" t="s">
         <v>102</v>
       </c>
@@ -8422,7 +8422,7 @@
       <c r="R142" s="1"/>
       <c r="S142" s="103"/>
     </row>
-    <row r="143" spans="1:19" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A143" s="64" t="s">
         <v>103</v>
       </c>
@@ -8448,7 +8448,7 @@
       <c r="R143" s="1"/>
       <c r="S143" s="103"/>
     </row>
-    <row r="144" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A144" s="64" t="s">
         <v>104</v>
       </c>
@@ -8474,7 +8474,7 @@
       <c r="R144" s="1"/>
       <c r="S144" s="103"/>
     </row>
-    <row r="145" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A145" s="64" t="s">
         <v>115</v>
       </c>
@@ -8517,7 +8517,7 @@
       <c r="R145" s="1"/>
       <c r="S145" s="103"/>
     </row>
-    <row r="146" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
         <v>320</v>
       </c>
@@ -8539,7 +8539,7 @@
       <c r="R146" s="1"/>
       <c r="S146" s="103"/>
     </row>
-    <row r="147" spans="1:19" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" s="64" t="s">
         <v>325</v>
       </c>
@@ -8565,7 +8565,7 @@
       <c r="R147" s="1"/>
       <c r="S147" s="103"/>
     </row>
-    <row r="148" spans="1:19" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A148" s="64" t="s">
         <v>326</v>
       </c>
@@ -8591,7 +8591,7 @@
       <c r="R148" s="1"/>
       <c r="S148" s="103"/>
     </row>
-    <row r="149" spans="1:19" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.25">
       <c r="A149" s="64" t="s">
         <v>327</v>
       </c>
@@ -8617,7 +8617,7 @@
       <c r="R149" s="1"/>
       <c r="S149" s="103"/>
     </row>
-    <row r="150" spans="1:19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="F150" s="104"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -8633,7 +8633,7 @@
       <c r="R150" s="1"/>
       <c r="S150" s="103"/>
     </row>
-    <row r="151" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="R151" s="1"/>
       <c r="S151" s="103"/>
     </row>
-    <row r="152" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="101" t="s">
         <v>117</v>
       </c>
@@ -8677,7 +8677,7 @@
       <c r="R152" s="1"/>
       <c r="S152" s="103"/>
     </row>
-    <row r="153" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65" t="s">
         <v>105</v>
       </c>
@@ -8701,7 +8701,7 @@
       <c r="R153" s="1"/>
       <c r="S153" s="103"/>
     </row>
-    <row r="154" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65" t="s">
         <v>106</v>
       </c>
@@ -8725,7 +8725,7 @@
       <c r="R154" s="1"/>
       <c r="S154" s="103"/>
     </row>
-    <row r="155" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65" t="s">
         <v>107</v>
       </c>
@@ -8749,7 +8749,7 @@
       <c r="R155" s="1"/>
       <c r="S155" s="103"/>
     </row>
-    <row r="156" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="65" t="s">
         <v>108</v>
       </c>
@@ -8773,7 +8773,7 @@
       <c r="R156" s="1"/>
       <c r="S156" s="103"/>
     </row>
-    <row r="157" spans="1:19" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A157" s="101" t="s">
         <v>116</v>
       </c>
@@ -8796,7 +8796,7 @@
       <c r="R157" s="1"/>
       <c r="S157" s="103"/>
     </row>
-    <row r="158" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65" t="s">
         <v>109</v>
       </c>
@@ -8822,7 +8822,7 @@
       <c r="R158" s="1"/>
       <c r="S158" s="103"/>
     </row>
-    <row r="159" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A159" s="65" t="s">
         <v>156</v>
       </c>
@@ -8849,7 +8849,7 @@
       <c r="R159" s="1"/>
       <c r="S159" s="103"/>
     </row>
-    <row r="160" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A160" s="65" t="s">
         <v>157</v>
       </c>
@@ -8875,7 +8875,7 @@
       <c r="R160" s="1"/>
       <c r="S160" s="103"/>
     </row>
-    <row r="161" spans="1:19" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A161" s="65" t="s">
         <v>158</v>
       </c>
@@ -8901,7 +8901,7 @@
       <c r="R161" s="1"/>
       <c r="S161" s="103"/>
     </row>
-    <row r="162" spans="1:19" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A162" s="65" t="s">
         <v>159</v>
       </c>
@@ -8927,7 +8927,7 @@
       <c r="R162" s="1"/>
       <c r="S162" s="103"/>
     </row>
-    <row r="163" spans="1:19" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="65" t="s">
         <v>324</v>
       </c>
@@ -8953,85 +8953,102 @@
       <c r="R163" s="1"/>
       <c r="S163" s="103"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J164" s="18"/>
       <c r="O164" s="18"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J165" s="18"/>
       <c r="O165" s="18"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J166" s="18"/>
       <c r="O166" s="18"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J167" s="18"/>
       <c r="O167" s="18"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J168" s="18"/>
       <c r="O168" s="18"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J169" s="18"/>
       <c r="O169" s="18"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J170" s="18"/>
       <c r="O170" s="18"/>
     </row>
-    <row r="171" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
       <c r="J171" s="18"/>
       <c r="O171"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J172" s="18"/>
       <c r="O172" s="18"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O173" s="18"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O174" s="18"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O175" s="18"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O176" s="18"/>
     </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O177" s="18"/>
     </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O178" s="18"/>
     </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O179" s="18"/>
     </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O180" s="18"/>
     </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O181" s="18"/>
     </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O182" s="18"/>
     </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O183" s="18"/>
     </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O184" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="M117:M118"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="R42:R45"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="R58:R59"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="R117:R118"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="M92:M93"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="H92:H93"/>
     <mergeCell ref="H117:H118"/>
@@ -9048,28 +9065,11 @@
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H42:H45"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="M117:M118"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="R42:R45"/>
-    <mergeCell ref="R48:R49"/>
-    <mergeCell ref="R58:R59"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="R117:R118"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C117:C118"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="F3:S71 F72:G72 I72:L72 N72:Q72 S72 F73:S163">
@@ -9090,24 +9090,24 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="57" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="48" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="6.26953125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-    </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -9117,7 +9117,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -9127,7 +9127,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -9141,57 +9141,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -9201,33 +9201,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -9251,57 +9251,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -9357,33 +9357,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="59" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="127" t="s">
         <v>336</v>
       </c>
       <c r="D23" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="59" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="122"/>
+      <c r="C24" s="129"/>
       <c r="D24" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
         <v>18</v>
       </c>
@@ -9397,7 +9397,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>19</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="67" t="s">
         <v>145</v>
       </c>
@@ -9421,57 +9421,57 @@
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C28" s="120" t="s">
+      <c r="C28" s="127" t="s">
         <v>339</v>
       </c>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C29" s="121"/>
+      <c r="C29" s="128"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C30" s="121"/>
+      <c r="C30" s="128"/>
       <c r="D30" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C31" s="122"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="70" t="s">
         <v>144</v>
       </c>
@@ -9481,89 +9481,89 @@
       <c r="C32" s="71"/>
       <c r="D32" s="72"/>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="59" t="s">
         <v>24</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="127" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="59" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="121"/>
+      <c r="C34" s="128"/>
       <c r="D34" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C35" s="122"/>
+      <c r="C35" s="129"/>
       <c r="D35" s="50" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="59" t="s">
         <v>27</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="127" t="s">
         <v>341</v>
       </c>
       <c r="D36" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="59" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="121"/>
+      <c r="C37" s="128"/>
       <c r="D37" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="18" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="59" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C38" s="122"/>
+      <c r="C38" s="129"/>
       <c r="D38" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="73"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
       <c r="D39" s="75"/>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="89" t="s">
         <v>142</v>
       </c>
@@ -9573,7 +9573,7 @@
       <c r="C40" s="76"/>
       <c r="D40" s="77"/>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="78" t="s">
         <v>141</v>
       </c>
@@ -9583,57 +9583,57 @@
       <c r="C41" s="79"/>
       <c r="D41" s="80"/>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C42" s="126" t="s">
+      <c r="C42" s="120" t="s">
         <v>205</v>
       </c>
       <c r="D42" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C43" s="127"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="127"/>
+      <c r="C44" s="121"/>
       <c r="D44" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C45" s="128"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="78" t="s">
         <v>140</v>
       </c>
@@ -9643,7 +9643,7 @@
       <c r="C46" s="79"/>
       <c r="D46" s="80"/>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
         <v>34</v>
       </c>
@@ -9657,33 +9657,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="128"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A50" s="60" t="s">
         <v>37</v>
       </c>
@@ -9697,7 +9697,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A51" s="60" t="s">
         <v>38</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A52" s="60" t="s">
         <v>39</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A53" s="60" t="s">
         <v>40</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>41</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>42</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>43</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
         <v>44</v>
       </c>
@@ -9795,33 +9795,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="60" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C58" s="126" t="s">
+      <c r="C58" s="120" t="s">
         <v>413</v>
       </c>
       <c r="D58" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="60" t="s">
         <v>46</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="128"/>
+      <c r="C59" s="122"/>
       <c r="D59" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A60" s="60" t="s">
         <v>47</v>
       </c>
@@ -9835,7 +9835,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="60" t="s">
         <v>48</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A62" s="60" t="s">
         <v>49</v>
       </c>
@@ -9863,7 +9863,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A63" s="60" t="s">
         <v>50</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A64" s="60" t="s">
         <v>51</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A65" s="60" t="s">
         <v>52</v>
       </c>
@@ -9905,7 +9905,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="60" t="s">
         <v>53</v>
       </c>
@@ -9919,7 +9919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A67" s="60" t="s">
         <v>54</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A68" s="60" t="s">
         <v>55</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="60" t="s">
         <v>56</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="78" t="s">
         <v>138</v>
       </c>
@@ -9971,7 +9971,7 @@
       <c r="C70" s="79"/>
       <c r="D70" s="80"/>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A71" s="60" t="s">
         <v>57</v>
       </c>
@@ -9985,7 +9985,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A72" s="60" t="s">
         <v>58</v>
       </c>
@@ -9999,7 +9999,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A73" s="60" t="s">
         <v>59</v>
       </c>
@@ -10011,13 +10011,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A75" s="87" t="s">
         <v>135</v>
       </c>
@@ -10027,7 +10027,7 @@
       <c r="C75" s="81"/>
       <c r="D75" s="81"/>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="82" t="s">
         <v>134</v>
       </c>
@@ -10037,7 +10037,7 @@
       <c r="C76" s="83"/>
       <c r="D76" s="84"/>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A77" s="61" t="s">
         <v>60</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A78" s="61" t="s">
         <v>61</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A79" s="61" t="s">
         <v>62</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="61" t="s">
         <v>63</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A81" s="61" t="s">
         <v>64</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="61" t="s">
         <v>65</v>
       </c>
@@ -10121,7 +10121,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A83" s="61" t="s">
         <v>153</v>
       </c>
@@ -10135,7 +10135,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="82" t="s">
         <v>133</v>
       </c>
@@ -10145,7 +10145,7 @@
       <c r="C84" s="83"/>
       <c r="D84" s="84"/>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A85" s="61" t="s">
         <v>66</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="61" t="s">
         <v>67</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="18" customFormat="1" ht="147" x14ac:dyDescent="0.35">
       <c r="A87" s="61" t="s">
         <v>68</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="61" t="s">
         <v>69</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A89" s="61" t="s">
         <v>70</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A90" s="61" t="s">
         <v>71</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A91" s="61" t="s">
         <v>72</v>
       </c>
@@ -10243,33 +10243,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C92" s="129" t="s">
+      <c r="C92" s="123" t="s">
         <v>427</v>
       </c>
       <c r="D92" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C93" s="130"/>
+      <c r="C93" s="124"/>
       <c r="D93" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A94" s="61" t="s">
         <v>75</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A95" s="61" t="s">
         <v>76</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="82" t="s">
         <v>132</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="C96" s="83"/>
       <c r="D96" s="84"/>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A97" s="61" t="s">
         <v>77</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A98" s="61" t="s">
         <v>78</v>
       </c>
@@ -10335,7 +10335,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A99" s="61" t="s">
         <v>79</v>
       </c>
@@ -10349,8 +10349,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="100" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="86" t="s">
         <v>130</v>
       </c>
@@ -10360,7 +10360,7 @@
       <c r="C101" s="30"/>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="93" t="s">
         <v>129</v>
       </c>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="D102" s="49"/>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="62" t="s">
         <v>80</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A104" s="62" t="s">
         <v>81</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="62" t="s">
         <v>82</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="93" t="s">
         <v>128</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
       <c r="D106" s="49"/>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="62" t="s">
         <v>83</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A108" s="62" t="s">
         <v>84</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="62" t="s">
         <v>85</v>
       </c>
@@ -10452,7 +10452,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="62" t="s">
         <v>86</v>
       </c>
@@ -10464,7 +10464,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="62" t="s">
         <v>87</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="62" t="s">
         <v>88</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="93" t="s">
         <v>161</v>
       </c>
@@ -10497,7 +10497,7 @@
       </c>
       <c r="D113" s="49"/>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="62" t="s">
         <v>110</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="62" t="s">
         <v>111</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A116" s="62" t="s">
         <v>112</v>
       </c>
@@ -10535,34 +10535,34 @@
         <v>185</v>
       </c>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C117" s="124" t="s">
+      <c r="C117" s="125" t="s">
         <v>273</v>
       </c>
       <c r="D117" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C118" s="125"/>
+      <c r="C118" s="126"/>
       <c r="D118" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A120" s="94" t="s">
         <v>126</v>
       </c>
@@ -10572,7 +10572,7 @@
       <c r="C120" s="33"/>
       <c r="D120" s="33"/>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="95" t="s">
         <v>125</v>
       </c>
@@ -10582,7 +10582,7 @@
       <c r="C121" s="45"/>
       <c r="D121" s="45"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A122" s="63" t="s">
         <v>89</v>
       </c>
@@ -10596,7 +10596,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="63" t="s">
         <v>90</v>
       </c>
@@ -10608,7 +10608,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="63" t="s">
         <v>91</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="63" t="s">
         <v>92</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A126" s="63" t="s">
         <v>93</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="63" t="s">
         <v>154</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A128" s="63" t="s">
         <v>155</v>
       </c>
@@ -10670,7 +10670,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="95" t="s">
         <v>124</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="C129" s="45"/>
       <c r="D129" s="45"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="63" t="s">
         <v>94</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="63" t="s">
         <v>95</v>
       </c>
@@ -10704,7 +10704,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="63" t="s">
         <v>96</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="63" t="s">
         <v>97</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A134" s="63" t="s">
         <v>98</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A135" s="63" t="s">
         <v>99</v>
       </c>
@@ -10756,8 +10756,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="137" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A137" s="98" t="s">
         <v>123</v>
       </c>
@@ -10767,7 +10767,7 @@
       <c r="C137" s="96"/>
       <c r="D137" s="96"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="99" t="s">
         <v>121</v>
       </c>
@@ -10777,7 +10777,7 @@
       <c r="C138" s="46"/>
       <c r="D138" s="46"/>
     </row>
-    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="64" t="s">
         <v>100</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="64" t="s">
         <v>101</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="99" t="s">
         <v>120</v>
       </c>
@@ -10813,7 +10813,7 @@
       <c r="C141" s="46"/>
       <c r="D141" s="46"/>
     </row>
-    <row r="142" spans="1:4" s="18" customFormat="1" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" s="18" customFormat="1" ht="115.5" x14ac:dyDescent="0.35">
       <c r="A142" s="64" t="s">
         <v>102</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="143" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A143" s="64" t="s">
         <v>103</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A144" s="64" t="s">
         <v>104</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A145" s="64" t="s">
         <v>115</v>
       </c>
@@ -10869,7 +10869,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="99" t="s">
         <v>320</v>
       </c>
@@ -10879,7 +10879,7 @@
       <c r="C146" s="46"/>
       <c r="D146" s="46"/>
     </row>
-    <row r="147" spans="1:4" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A147" s="64" t="s">
         <v>325</v>
       </c>
@@ -10893,7 +10893,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A148" s="64" t="s">
         <v>326</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A149" s="64" t="s">
         <v>327</v>
       </c>
@@ -10921,8 +10921,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="151" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A151" s="100" t="s">
         <v>119</v>
       </c>
@@ -10932,7 +10932,7 @@
       <c r="C151" s="39"/>
       <c r="D151" s="39"/>
     </row>
-    <row r="152" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="101" t="s">
         <v>117</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="C152" s="47"/>
       <c r="D152" s="47"/>
     </row>
-    <row r="153" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="65" t="s">
         <v>105</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="65" t="s">
         <v>106</v>
       </c>
@@ -10966,7 +10966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="65" t="s">
         <v>107</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="65" t="s">
         <v>108</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="157" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="101" t="s">
         <v>116</v>
       </c>
@@ -11000,7 +11000,7 @@
       <c r="C157" s="47"/>
       <c r="D157" s="47"/>
     </row>
-    <row r="158" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="65" t="s">
         <v>109</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="159" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A159" s="65" t="s">
         <v>156</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A160" s="65" t="s">
         <v>157</v>
       </c>
@@ -11042,7 +11042,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:4" s="18" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.35">
       <c r="A161" s="65" t="s">
         <v>158</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="162" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A162" s="65" t="s">
         <v>159</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="163" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A163" s="65" t="s">
         <v>324</v>
       </c>
@@ -11086,6 +11086,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="C48:C49"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C23:C24"/>
@@ -11093,12 +11099,6 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="C48:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11109,34 +11109,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F752FCB-318B-4B42-BD1B-46C0671C7822}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -11146,7 +11146,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -11156,7 +11156,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -11170,57 +11170,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -11230,33 +11230,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -11280,57 +11280,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -11344,7 +11344,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -11372,7 +11372,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A22" s="59" t="s">
         <v>15</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="113" t="s">
         <v>17</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="67" t="s">
         <v>145</v>
       </c>
@@ -11424,63 +11424,63 @@
       <c r="C25" s="68"/>
       <c r="D25" s="69"/>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C26" s="120" t="s">
+      <c r="C26" s="127" t="s">
         <v>339</v>
       </c>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="121"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C28" s="121"/>
+      <c r="C28" s="128"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C29" s="122"/>
+      <c r="C29" s="129"/>
       <c r="D29" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="89" t="s">
         <v>142</v>
       </c>
@@ -11490,7 +11490,7 @@
       <c r="C31" s="76"/>
       <c r="D31" s="77"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="78" t="s">
         <v>141</v>
       </c>
@@ -11500,57 +11500,57 @@
       <c r="C32" s="79"/>
       <c r="D32" s="80"/>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C33" s="126" t="s">
+      <c r="C33" s="120" t="s">
         <v>205</v>
       </c>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="127"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="127"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="122"/>
       <c r="D36" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="78" t="s">
         <v>140</v>
       </c>
@@ -11560,7 +11560,7 @@
       <c r="C37" s="79"/>
       <c r="D37" s="80"/>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
         <v>34</v>
       </c>
@@ -11574,33 +11574,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C39" s="126" t="s">
+      <c r="C39" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="128"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
         <v>37</v>
       </c>
@@ -11614,7 +11614,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>38</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>39</v>
       </c>
@@ -11642,7 +11642,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
         <v>40</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A45" s="60" t="s">
         <v>41</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="60" t="s">
         <v>42</v>
       </c>
@@ -11684,7 +11684,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A47" s="60" t="s">
         <v>43</v>
       </c>
@@ -11698,33 +11698,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C48" s="126" t="s">
+      <c r="C48" s="120" t="s">
         <v>413</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="114" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C49" s="128"/>
+      <c r="C49" s="122"/>
       <c r="D49" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A50" s="114" t="s">
         <v>46</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A51" s="114" t="s">
         <v>47</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A52" s="114" t="s">
         <v>48</v>
       </c>
@@ -11766,7 +11766,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A53" s="114" t="s">
         <v>49</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="114" t="s">
         <v>50</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="78" t="s">
         <v>138</v>
       </c>
@@ -11804,7 +11804,7 @@
       <c r="C55" s="79"/>
       <c r="D55" s="80"/>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>57</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A57" s="60" t="s">
         <v>58</v>
       </c>
@@ -11832,7 +11832,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="60" t="s">
         <v>59</v>
       </c>
@@ -11844,11 +11844,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="58"/>
       <c r="D59" s="49"/>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="87" t="s">
         <v>135</v>
       </c>
@@ -11858,7 +11858,7 @@
       <c r="C60" s="81"/>
       <c r="D60" s="81"/>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="82" t="s">
         <v>134</v>
       </c>
@@ -11868,7 +11868,7 @@
       <c r="C61" s="83"/>
       <c r="D61" s="84"/>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A62" s="61" t="s">
         <v>60</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="61" t="s">
         <v>61</v>
       </c>
@@ -11896,7 +11896,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
         <v>62</v>
       </c>
@@ -11910,7 +11910,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="61" t="s">
         <v>63</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>64</v>
       </c>
@@ -11938,7 +11938,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="82" t="s">
         <v>133</v>
       </c>
@@ -11948,7 +11948,7 @@
       <c r="C67" s="83"/>
       <c r="D67" s="84"/>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A68" s="61" t="s">
         <v>66</v>
       </c>
@@ -11962,7 +11962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="61" t="s">
         <v>67</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A70" s="61" t="s">
         <v>68</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>69</v>
       </c>
@@ -12004,7 +12004,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A72" s="61" t="s">
         <v>70</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A73" s="61" t="s">
         <v>71</v>
       </c>
@@ -12032,7 +12032,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A74" s="61" t="s">
         <v>72</v>
       </c>
@@ -12046,33 +12046,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C75" s="129" t="s">
+      <c r="C75" s="123" t="s">
         <v>427</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="130"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="82" t="s">
         <v>132</v>
       </c>
@@ -12082,7 +12082,7 @@
       <c r="C77" s="83"/>
       <c r="D77" s="84"/>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A78" s="61" t="s">
         <v>77</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A79" s="61" t="s">
         <v>78</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A80" s="61" t="s">
         <v>79</v>
       </c>
@@ -12124,13 +12124,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="58"/>
       <c r="B81" s="18"/>
       <c r="C81" s="102"/>
       <c r="D81" s="49"/>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="86" t="s">
         <v>130</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="93" t="s">
         <v>129</v>
       </c>
@@ -12149,7 +12149,7 @@
       </c>
       <c r="D83" s="49"/>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="62" t="s">
         <v>80</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="62" t="s">
         <v>81</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="62" t="s">
         <v>82</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="93" t="s">
         <v>128</v>
       </c>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="D87" s="49"/>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="62" t="s">
         <v>83</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A89" s="62" t="s">
         <v>84</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="62" t="s">
         <v>85</v>
       </c>
@@ -12232,7 +12232,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="62" t="s">
         <v>86</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="62" t="s">
         <v>87</v>
       </c>
@@ -12256,7 +12256,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="62" t="s">
         <v>88</v>
       </c>
@@ -12268,7 +12268,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="93" t="s">
         <v>161</v>
       </c>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="D94" s="49"/>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="62" t="s">
         <v>110</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="62" t="s">
         <v>111</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="62" t="s">
         <v>112</v>
       </c>
@@ -12315,39 +12315,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C98" s="124" t="s">
+      <c r="C98" s="125" t="s">
         <v>273</v>
       </c>
       <c r="D98" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C99" s="125"/>
+      <c r="C99" s="126"/>
       <c r="D99" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A100" s="58"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
       <c r="D100" s="49"/>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="94" t="s">
         <v>126</v>
       </c>
@@ -12357,7 +12357,7 @@
       <c r="C101" s="33"/>
       <c r="D101" s="33"/>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="95" t="s">
         <v>125</v>
       </c>
@@ -12366,7 +12366,7 @@
       </c>
       <c r="D102" s="49"/>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>89</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
         <v>90</v>
       </c>
@@ -12392,7 +12392,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="63" t="s">
         <v>91</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="63" t="s">
         <v>92</v>
       </c>
@@ -12416,7 +12416,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>93</v>
       </c>
@@ -12430,7 +12430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="63" t="s">
         <v>154</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="63" t="s">
         <v>155</v>
       </c>
@@ -12452,7 +12452,7 @@
       <c r="C109" s="14"/>
       <c r="D109" s="54"/>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="95" t="s">
         <v>124</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="s">
         <v>94</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="63" t="s">
         <v>95</v>
       </c>
@@ -12484,7 +12484,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="63" t="s">
         <v>96</v>
       </c>
@@ -12496,7 +12496,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="63" t="s">
         <v>97</v>
       </c>
@@ -12508,7 +12508,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A115" s="63" t="s">
         <v>98</v>
       </c>
@@ -12522,7 +12522,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A116" s="63" t="s">
         <v>99</v>
       </c>
@@ -12536,13 +12536,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A117" s="58"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="49"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A118" s="98" t="s">
         <v>123</v>
       </c>
@@ -12552,7 +12552,7 @@
       <c r="C118" s="96"/>
       <c r="D118" s="97"/>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="99" t="s">
         <v>121</v>
       </c>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="D119" s="49"/>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="64" t="s">
         <v>100</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="99" t="s">
         <v>120</v>
       </c>
@@ -12582,7 +12582,7 @@
       </c>
       <c r="D121" s="49"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A122" s="117" t="s">
         <v>102</v>
       </c>
@@ -12596,166 +12596,166 @@
         <v>181</v>
       </c>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="104"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="103"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="104"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="103"/>
     </row>
-    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="104"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="103"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="104"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="103"/>
     </row>
-    <row r="127" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A127" s="104"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="103"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="104"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="103"/>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="103"/>
     </row>
-    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="104"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="103"/>
     </row>
-    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="104"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="103"/>
     </row>
-    <row r="154" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="103"/>
     </row>
-    <row r="155" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="103"/>
     </row>
-    <row r="156" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="103"/>
     </row>
-    <row r="157" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="103"/>
     </row>
-    <row r="158" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="103"/>
     </row>
-    <row r="159" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="103"/>
     </row>
-    <row r="160" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="103"/>
     </row>
-    <row r="161" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C39:C40"/>
     <mergeCell ref="C26:C29"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="C39:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12770,30 +12770,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>421</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -12813,7 +12813,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -12827,57 +12827,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="127" t="s">
         <v>426</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -12887,33 +12887,33 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -12937,57 +12937,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="101.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="94.5" x14ac:dyDescent="0.35">
       <c r="A19" s="59" t="s">
         <v>12</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A20" s="59" t="s">
         <v>13</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
@@ -13029,7 +13029,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="113" t="s">
         <v>15</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -13057,7 +13057,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>145</v>
       </c>
@@ -13067,63 +13067,63 @@
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="127" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="121"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="C27" s="121"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="122"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="89" t="s">
         <v>142</v>
       </c>
@@ -13133,7 +13133,7 @@
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="78" t="s">
         <v>141</v>
       </c>
@@ -13143,33 +13143,33 @@
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="120" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="128"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="60" t="s">
         <v>32</v>
       </c>
@@ -13181,7 +13181,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="60" t="s">
         <v>33</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="78" t="s">
         <v>140</v>
       </c>
@@ -13203,7 +13203,7 @@
       <c r="C36" s="79"/>
       <c r="D36" s="80"/>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
         <v>34</v>
       </c>
@@ -13217,33 +13217,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="128"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
         <v>37</v>
       </c>
@@ -13257,7 +13257,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
         <v>38</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>39</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>40</v>
       </c>
@@ -13299,7 +13299,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
         <v>41</v>
       </c>
@@ -13313,7 +13313,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A45" s="114" t="s">
         <v>42</v>
       </c>
@@ -13327,33 +13327,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="120" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="128"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A48" s="114" t="s">
         <v>45</v>
       </c>
@@ -13367,7 +13367,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A49" s="114" t="s">
         <v>46</v>
       </c>
@@ -13381,7 +13381,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="114" t="s">
         <v>47</v>
       </c>
@@ -13395,7 +13395,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A51" s="114" t="s">
         <v>48</v>
       </c>
@@ -13409,7 +13409,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="114" t="s">
         <v>49</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="78" t="s">
         <v>138</v>
       </c>
@@ -13433,7 +13433,7 @@
       <c r="C53" s="79"/>
       <c r="D53" s="80"/>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>57</v>
       </c>
@@ -13447,7 +13447,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>58</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A56" s="60" t="s">
         <v>59</v>
       </c>
@@ -13473,11 +13473,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="58"/>
       <c r="D57" s="49"/>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="87" t="s">
         <v>135</v>
       </c>
@@ -13487,7 +13487,7 @@
       <c r="C58" s="81"/>
       <c r="D58" s="81"/>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="82" t="s">
         <v>134</v>
       </c>
@@ -13497,7 +13497,7 @@
       <c r="C59" s="83"/>
       <c r="D59" s="84"/>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A60" s="61" t="s">
         <v>60</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="61" t="s">
         <v>61</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="61" t="s">
         <v>62</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="61" t="s">
         <v>63</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A64" s="61" t="s">
         <v>64</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="82" t="s">
         <v>133</v>
       </c>
@@ -13577,7 +13577,7 @@
       <c r="C65" s="83"/>
       <c r="D65" s="84"/>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>66</v>
       </c>
@@ -13591,7 +13591,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="61" t="s">
         <v>67</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A68" s="61" t="s">
         <v>68</v>
       </c>
@@ -13619,7 +13619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="61" t="s">
         <v>69</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="61" t="s">
         <v>70</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>71</v>
       </c>
@@ -13661,7 +13661,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A72" s="61" t="s">
         <v>72</v>
       </c>
@@ -13675,33 +13675,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C73" s="129" t="s">
+      <c r="C73" s="123" t="s">
         <v>427</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C74" s="130"/>
+      <c r="C74" s="124"/>
       <c r="D74" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="82" t="s">
         <v>132</v>
       </c>
@@ -13711,7 +13711,7 @@
       <c r="C75" s="83"/>
       <c r="D75" s="84"/>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A76" s="61" t="s">
         <v>77</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A77" s="61" t="s">
         <v>78</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A78" s="61" t="s">
         <v>79</v>
       </c>
@@ -13753,13 +13753,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="58"/>
       <c r="B79" s="18"/>
       <c r="C79" s="102"/>
       <c r="D79" s="49"/>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="86" t="s">
         <v>130</v>
       </c>
@@ -13769,7 +13769,7 @@
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="93" t="s">
         <v>129</v>
       </c>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="D81" s="49"/>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="62" t="s">
         <v>80</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A83" s="62" t="s">
         <v>81</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="62" t="s">
         <v>82</v>
       </c>
@@ -13816,7 +13816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="93" t="s">
         <v>128</v>
       </c>
@@ -13825,7 +13825,7 @@
       </c>
       <c r="D85" s="49"/>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="62" t="s">
         <v>83</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A87" s="62" t="s">
         <v>84</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="62" t="s">
         <v>85</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="62" t="s">
         <v>86</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="62" t="s">
         <v>87</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="62" t="s">
         <v>88</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="93" t="s">
         <v>161</v>
       </c>
@@ -13906,7 +13906,7 @@
       </c>
       <c r="D92" s="49"/>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="62" t="s">
         <v>110</v>
       </c>
@@ -13918,7 +13918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="62" t="s">
         <v>111</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A95" s="62" t="s">
         <v>112</v>
       </c>
@@ -13944,39 +13944,39 @@
         <v>185</v>
       </c>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C96" s="124" t="s">
+      <c r="C96" s="125" t="s">
         <v>273</v>
       </c>
       <c r="D96" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C97" s="125"/>
+      <c r="C97" s="126"/>
       <c r="D97" s="53" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A98" s="58"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="49"/>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A99" s="94" t="s">
         <v>126</v>
       </c>
@@ -13986,7 +13986,7 @@
       <c r="C99" s="33"/>
       <c r="D99" s="33"/>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="95" t="s">
         <v>125</v>
       </c>
@@ -13995,7 +13995,7 @@
       </c>
       <c r="D100" s="49"/>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A101" s="63" t="s">
         <v>89</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="63" t="s">
         <v>90</v>
       </c>
@@ -14021,7 +14021,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>91</v>
       </c>
@@ -14033,7 +14033,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
         <v>92</v>
       </c>
@@ -14045,7 +14045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A105" s="63" t="s">
         <v>93</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="63" t="s">
         <v>154</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>155</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="95" t="s">
         <v>124</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="63" t="s">
         <v>94</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="63" t="s">
         <v>95</v>
       </c>
@@ -14115,7 +14115,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="63" t="s">
         <v>96</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="63" t="s">
         <v>97</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" s="18" customFormat="1" ht="63" x14ac:dyDescent="0.35">
       <c r="A113" s="63" t="s">
         <v>98</v>
       </c>
@@ -14153,7 +14153,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A114" s="63" t="s">
         <v>99</v>
       </c>
@@ -14167,13 +14167,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A115" s="58"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="49"/>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A116" s="98" t="s">
         <v>123</v>
       </c>
@@ -14183,7 +14183,7 @@
       <c r="C116" s="96"/>
       <c r="D116" s="97"/>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="99" t="s">
         <v>121</v>
       </c>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="D117" s="49"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="64" t="s">
         <v>100</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="99" t="s">
         <v>120</v>
       </c>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="D119" s="49"/>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A120" s="64" t="s">
         <v>102</v>
       </c>
@@ -14227,115 +14227,115 @@
         <v>181</v>
       </c>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="103"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="104"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="103"/>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="104"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="103"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="104"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="103"/>
     </row>
-    <row r="125" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="104"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="103"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="104"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="103"/>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="104"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="103"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="104"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="103"/>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="103"/>
     </row>
-    <row r="152" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="103"/>
@@ -14355,7 +14355,7 @@
       <c r="R152" s="17"/>
       <c r="S152" s="17"/>
     </row>
-    <row r="153" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="103"/>
@@ -14375,7 +14375,7 @@
       <c r="R153" s="17"/>
       <c r="S153" s="17"/>
     </row>
-    <row r="154" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="103"/>
@@ -14395,7 +14395,7 @@
       <c r="R154" s="17"/>
       <c r="S154" s="17"/>
     </row>
-    <row r="155" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="103"/>
@@ -14415,7 +14415,7 @@
       <c r="R155" s="17"/>
       <c r="S155" s="17"/>
     </row>
-    <row r="156" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="103"/>
@@ -14435,7 +14435,7 @@
       <c r="R156" s="17"/>
       <c r="S156" s="17"/>
     </row>
-    <row r="157" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="103"/>
@@ -14455,7 +14455,7 @@
       <c r="R157" s="17"/>
       <c r="S157" s="17"/>
     </row>
-    <row r="158" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="103"/>
@@ -14475,7 +14475,7 @@
       <c r="R158" s="17"/>
       <c r="S158" s="17"/>
     </row>
-    <row r="159" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:19" s="104" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="103"/>
@@ -14497,16 +14497,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14521,30 +14521,30 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="104" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="82.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="103" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="17"/>
+    <col min="1" max="1" width="6.26953125" style="104" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="5.26953125" style="103" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:4" s="18" customFormat="1" ht="23.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="130" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="58"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
       <c r="D2" s="49"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="91" t="s">
         <v>149</v>
       </c>
@@ -14554,7 +14554,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="66"/>
     </row>
-    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>148</v>
       </c>
@@ -14564,7 +14564,7 @@
       <c r="C4" s="68"/>
       <c r="D4" s="69"/>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>0</v>
       </c>
@@ -14578,57 +14578,57 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="127" t="s">
         <v>329</v>
       </c>
       <c r="D6" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C7" s="121"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="121"/>
+      <c r="C8" s="128"/>
       <c r="D8" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="129"/>
       <c r="D9" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="67" t="s">
         <v>147</v>
       </c>
@@ -14638,31 +14638,31 @@
       <c r="C10" s="68"/>
       <c r="D10" s="69"/>
     </row>
-    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="127" t="s">
         <v>330</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="C12" s="122"/>
+      <c r="C12" s="129"/>
       <c r="D12" s="50"/>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
         <v>7</v>
       </c>
@@ -14676,7 +14676,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="67" t="s">
         <v>146</v>
       </c>
@@ -14686,57 +14686,57 @@
       <c r="C14" s="68"/>
       <c r="D14" s="69"/>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="127" t="s">
         <v>331</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C16" s="121"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C18" s="122"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="50" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A19" s="113" t="s">
         <v>12</v>
       </c>
@@ -14750,7 +14750,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="113" t="s">
         <v>13</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A21" s="113" t="s">
         <v>14</v>
       </c>
@@ -14778,7 +14778,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="113" t="s">
         <v>15</v>
       </c>
@@ -14792,7 +14792,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="113" t="s">
         <v>16</v>
       </c>
@@ -14806,7 +14806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="67" t="s">
         <v>145</v>
       </c>
@@ -14816,63 +14816,63 @@
       <c r="C24" s="68"/>
       <c r="D24" s="69"/>
     </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="59" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="120" t="s">
+      <c r="C25" s="127" t="s">
         <v>339</v>
       </c>
       <c r="D25" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="59" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="121"/>
+      <c r="C26" s="128"/>
       <c r="D26" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="59" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C27" s="121"/>
+      <c r="C27" s="128"/>
       <c r="D27" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="59" t="s">
         <v>23</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="122"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="50" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="89" t="s">
         <v>142</v>
       </c>
@@ -14882,7 +14882,7 @@
       <c r="C30" s="76"/>
       <c r="D30" s="77"/>
     </row>
-    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="78" t="s">
         <v>141</v>
       </c>
@@ -14892,57 +14892,57 @@
       <c r="C31" s="79"/>
       <c r="D31" s="80"/>
     </row>
-    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="60" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C32" s="126" t="s">
+      <c r="C32" s="120" t="s">
         <v>205</v>
       </c>
       <c r="D32" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="C33" s="127"/>
+      <c r="C33" s="121"/>
       <c r="D33" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="60" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="127"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="60" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C35" s="128"/>
+      <c r="C35" s="122"/>
       <c r="D35" s="51" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="78" t="s">
         <v>140</v>
       </c>
@@ -14952,7 +14952,7 @@
       <c r="C36" s="79"/>
       <c r="D36" s="80"/>
     </row>
-    <row r="37" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="60" t="s">
         <v>34</v>
       </c>
@@ -14966,33 +14966,33 @@
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="60" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="120" t="s">
         <v>343</v>
       </c>
       <c r="D38" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="60" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C39" s="128"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="51" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A40" s="60" t="s">
         <v>37</v>
       </c>
@@ -15006,7 +15006,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A41" s="60" t="s">
         <v>38</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A42" s="60" t="s">
         <v>39</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A43" s="60" t="s">
         <v>40</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A44" s="60" t="s">
         <v>41</v>
       </c>
@@ -15062,7 +15062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A45" s="114" t="s">
         <v>42</v>
       </c>
@@ -15076,33 +15076,33 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="114" t="s">
         <v>43</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="120" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="18" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C47" s="128"/>
+      <c r="C47" s="122"/>
       <c r="D47" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="18" customFormat="1" ht="84" x14ac:dyDescent="0.35">
       <c r="A48" s="114" t="s">
         <v>45</v>
       </c>
@@ -15116,7 +15116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="18" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="18" customFormat="1" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A49" s="114" t="s">
         <v>46</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="114" t="s">
         <v>47</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="114" t="s">
         <v>48</v>
       </c>
@@ -15158,7 +15158,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="78" t="s">
         <v>138</v>
       </c>
@@ -15168,7 +15168,7 @@
       <c r="C52" s="79"/>
       <c r="D52" s="80"/>
     </row>
-    <row r="53" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="60" t="s">
         <v>57</v>
       </c>
@@ -15182,7 +15182,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="60" t="s">
         <v>58</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A55" s="60" t="s">
         <v>59</v>
       </c>
@@ -15208,11 +15208,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="58"/>
       <c r="D56" s="49"/>
     </row>
-    <row r="57" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="87" t="s">
         <v>135</v>
       </c>
@@ -15222,7 +15222,7 @@
       <c r="C57" s="81"/>
       <c r="D57" s="81"/>
     </row>
-    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="82" t="s">
         <v>134</v>
       </c>
@@ -15232,7 +15232,7 @@
       <c r="C58" s="83"/>
       <c r="D58" s="84"/>
     </row>
-    <row r="59" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A59" s="61" t="s">
         <v>60</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A60" s="61" t="s">
         <v>61</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="61" t="s">
         <v>62</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="61" t="s">
         <v>63</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A63" s="61" t="s">
         <v>64</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="82" t="s">
         <v>133</v>
       </c>
@@ -15312,7 +15312,7 @@
       <c r="C64" s="83"/>
       <c r="D64" s="84"/>
     </row>
-    <row r="65" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A65" s="61" t="s">
         <v>66</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="61" t="s">
         <v>67</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="18" customFormat="1" ht="146.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="18" customFormat="1" ht="136.5" x14ac:dyDescent="0.35">
       <c r="A67" s="61" t="s">
         <v>68</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="61" t="s">
         <v>69</v>
       </c>
@@ -15368,7 +15368,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="61" t="s">
         <v>70</v>
       </c>
@@ -15382,7 +15382,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="70" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="61" t="s">
         <v>71</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="61" t="s">
         <v>72</v>
       </c>
@@ -15410,33 +15410,33 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="61" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C72" s="129" t="s">
+      <c r="C72" s="123" t="s">
         <v>427</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="61" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C73" s="130"/>
+      <c r="C73" s="124"/>
       <c r="D73" s="52" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="82" t="s">
         <v>132</v>
       </c>
@@ -15446,7 +15446,7 @@
       <c r="C74" s="83"/>
       <c r="D74" s="84"/>
     </row>
-    <row r="75" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A75" s="61" t="s">
         <v>77</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="18" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" s="18" customFormat="1" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A76" s="61" t="s">
         <v>78</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" s="18" customFormat="1" ht="42" x14ac:dyDescent="0.35">
       <c r="A77" s="61" t="s">
         <v>79</v>
       </c>
@@ -15488,13 +15488,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="58"/>
       <c r="B78" s="18"/>
       <c r="C78" s="102"/>
       <c r="D78" s="49"/>
     </row>
-    <row r="79" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="86" t="s">
         <v>130</v>
       </c>
@@ -15504,7 +15504,7 @@
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="93" t="s">
         <v>129</v>
       </c>
@@ -15513,7 +15513,7 @@
       </c>
       <c r="D80" s="49"/>
     </row>
-    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="62" t="s">
         <v>80</v>
       </c>
@@ -15525,7 +15525,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A82" s="62" t="s">
         <v>81</v>
       </c>
@@ -15539,7 +15539,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="62" t="s">
         <v>82</v>
       </c>
@@ -15551,7 +15551,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="93" t="s">
         <v>128</v>
       </c>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="D84" s="49"/>
     </row>
-    <row r="85" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A85" s="118" t="s">
         <v>83</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="118" t="s">
         <v>84</v>
       </c>
@@ -15584,7 +15584,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="118" t="s">
         <v>85</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="118" t="s">
         <v>86</v>
       </c>
@@ -15608,7 +15608,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="93" t="s">
         <v>161</v>
       </c>
@@ -15617,7 +15617,7 @@
       </c>
       <c r="D89" s="49"/>
     </row>
-    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="62" t="s">
         <v>110</v>
       </c>
@@ -15629,7 +15629,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="62" t="s">
         <v>111</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A92" s="62" t="s">
         <v>112</v>
       </c>
@@ -15655,39 +15655,39 @@
         <v>434</v>
       </c>
     </row>
-    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="62" t="s">
         <v>113</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="C93" s="124" t="s">
+      <c r="C93" s="125" t="s">
         <v>273</v>
       </c>
       <c r="D93" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="62" t="s">
         <v>114</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C94" s="125"/>
+      <c r="C94" s="126"/>
       <c r="D94" s="53" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A95" s="58"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="49"/>
     </row>
-    <row r="96" spans="1:4" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" s="18" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A96" s="94" t="s">
         <v>126</v>
       </c>
@@ -15697,7 +15697,7 @@
       <c r="C96" s="33"/>
       <c r="D96" s="33"/>
     </row>
-    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="95" t="s">
         <v>125</v>
       </c>
@@ -15706,7 +15706,7 @@
       </c>
       <c r="D97" s="49"/>
     </row>
-    <row r="98" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A98" s="63" t="s">
         <v>89</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="63" t="s">
         <v>90</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="63" t="s">
         <v>91</v>
       </c>
@@ -15744,7 +15744,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="63" t="s">
         <v>92</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="18" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A102" s="63" t="s">
         <v>93</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="63" t="s">
         <v>154</v>
       </c>
@@ -15782,7 +15782,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="63" t="s">
         <v>155</v>
       </c>
@@ -15794,7 +15794,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="95" t="s">
         <v>124</v>
       </c>
@@ -15802,7 +15802,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="63" t="s">
         <v>94</v>
       </c>
@@ -15814,7 +15814,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="63" t="s">
         <v>95</v>
       </c>
@@ -15826,7 +15826,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="63" t="s">
         <v>96</v>
       </c>
@@ -15838,7 +15838,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="63" t="s">
         <v>97</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="18" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A110" s="119" t="s">
         <v>98</v>
       </c>
@@ -15864,169 +15864,169 @@
         <v>175</v>
       </c>
     </row>
-    <row r="111" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A111" s="104"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="103"/>
     </row>
-    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="104"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="103"/>
     </row>
-    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="104"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="103"/>
     </row>
-    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="104"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="103"/>
     </row>
-    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="104"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="103"/>
     </row>
-    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="104"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="103"/>
     </row>
-    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="104"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="103"/>
     </row>
-    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="104"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="103"/>
     </row>
-    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="104"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="103"/>
     </row>
-    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="104"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="103"/>
     </row>
-    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="104"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="103"/>
     </row>
-    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="104"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="103"/>
     </row>
-    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="104"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="103"/>
     </row>
-    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="104"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="103"/>
     </row>
-    <row r="125" spans="1:4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A125" s="104"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="103"/>
     </row>
-    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="104"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="103"/>
     </row>
-    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="104"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="103"/>
     </row>
-    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="104"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="103"/>
     </row>
-    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="104"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="103"/>
     </row>
-    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="104"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="103"/>
     </row>
-    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="104"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="103"/>
     </row>
-    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="104"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="103"/>
     </row>
-    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="104"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="103"/>
     </row>
-    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="104"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="103"/>
     </row>
-    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="104"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="103"/>
     </row>
-    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="104"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="103"/>
     </row>
-    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="104"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="103"/>
     </row>
-    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="104"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -16034,16 +16034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C25:C28"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C6:C9"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C38:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16058,13 +16058,13 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>150</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>143</v>
       </c>
@@ -16102,7 +16102,7 @@
       </c>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
         <v>136</v>
       </c>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
         <v>131</v>
       </c>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="I20" s="13"/>
     </row>
-    <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
         <v>118</v>
       </c>
@@ -16159,7 +16159,7 @@
       </c>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
         <v>127</v>
       </c>
@@ -16178,7 +16178,7 @@
       </c>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
         <v>122</v>
       </c>
